--- a/sources/police_stations/sources.xlsx
+++ b/sources/police_stations/sources.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\kuchjos\LODE\DatabaseSources\Police Stations\Collection\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Province</t>
   </si>
@@ -204,16 +199,39 @@
   </si>
   <si>
     <t>https://data.surrey.ca/dataset/places-of-interest</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>http://www.rcmp-grc.gc.ca/detach/en/d/*/kmlloc</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Needs scraping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,13 +254,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,18 +542,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="158.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="77.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,8 +929,28 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>